--- a/pred_ohlcv/54_21/2020-01-20 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 CON ohlcv.xlsx
@@ -5826,7 +5826,7 @@
         <v>-886172.8406000005</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-954256.4806000005</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-875159.3106000004</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-740493.8756000004</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-815085.5106000004</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-861642.7056000003</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-800567.6756000003</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-876661.1556000003</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-908557.5289390316</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-908557.5289390316</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-841475.1189390316</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-906054.4539390316</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-961622.7189390316</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-929082.7439390316</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-872397.1059390316</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-922959.2209390316</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1001055.160939032</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-947489.3559390315</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-980029.3309390314</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-853373.7359390315</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-918954.3009390314</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-866890.3409390314</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-866890.3409390314</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-748244.5859390314</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-817830.0709390314</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-866389.7259390315</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-899430.3159390314</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-957501.6559390314</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-938774.6499390315</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-820629.5099390314</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-891716.8399390314</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-835147.3449390314</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-997622.3043390313</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-997622.3043390313</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-997517.6843390313</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1034563.194339031</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1034563.194339031</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-962288.6343390313</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1009995.241339031</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-7017352.705339033</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7212408.055339033</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-7212408.055339033</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-7274484.315339033</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-7274284.315339033</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-7308326.135339033</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7308326.135339033</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7273283.085339033</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7333662.076239033</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-7218358.505939033</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7515015.264439033</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7467957.454439034</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7467957.454439034</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7574087.834439034</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7510009.114439034</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7510009.114439034</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7510009.114439034</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-7561772.459439034</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7635362.864439034</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-7572785.989439034</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-7637865.939439034</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-7564776.149439034</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-7564776.149439034</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-7518719.569439034</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-7576790.909439034</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-7544751.549439033</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-7630857.329439034</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-7631057.329439034</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-7631057.329439034</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-7579994.599439033</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-7620043.799439033</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-7683621.904439033</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-7649079.469439033</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-7729177.869439034</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-7705148.349439034</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-7624849.949439034</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-7329479.134439034</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-337838.8922390346</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-797765.6692390346</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-720470.7132390346</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-760920.4052390347</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-847827.1692390346</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-581525.1038390347</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-645203.3318390347</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-593539.8638390347</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>10919.47236096521</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-5451081.839739036</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-5451081.839739036</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-5344150.475739036</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-5407027.719739036</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-5058348.126739035</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-5136444.066739036</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-5166881.458739036</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-5121625.862739036</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-5032316.146739036</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-4931095.798739036</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-4931095.798739036</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-5019604.530739035</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-5052845.366739036</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-4980356.314739035</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-5039228.638739035</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-5039228.638739035</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-4949117.938739035</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-4903061.358739035</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-4824983.807739035</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-4865433.499739035</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-5688070.773839035</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-5605969.913839035</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-5717707.181839035</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-5764935.101839035</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-3869320.578339035</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-3868320.578339035</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-4975616.170239035</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 CON ohlcv.xlsx
@@ -5826,7 +5826,7 @@
         <v>-886172.8406000005</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-954256.4806000005</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-875159.3106000004</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-740493.8756000004</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-815085.5106000004</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-861642.7056000003</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-800567.6756000003</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-876661.1556000003</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-908557.5289390316</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-908557.5289390316</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-841475.1189390316</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-906054.4539390316</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-961622.7189390316</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-929082.7439390316</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-872397.1059390316</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-922959.2209390316</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1001055.160939032</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-947489.3559390315</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-980029.3309390314</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-853373.7359390315</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-918954.3009390314</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-866890.3409390314</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-866890.3409390314</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-748244.5859390314</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-817830.0709390314</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-866389.7259390315</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-899430.3159390314</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-957501.6559390314</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-938774.6499390315</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-820629.5099390314</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-891716.8399390314</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-835147.3449390314</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-997622.3043390313</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-997622.3043390313</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-998022.3043390313</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-997517.6843390313</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1034563.194339031</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1034563.194339031</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-962288.6343390313</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1010347.674339031</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1009995.241339031</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1070569.656339031</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-7017352.705339033</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7212408.055339033</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-7212408.055339033</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-7274484.315339033</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-7274284.315339033</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-7308326.135339033</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-7308326.135339033</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7273283.085339033</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7333662.076239033</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-7218358.505939033</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7405881.194439033</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7515015.264439033</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7467957.454439034</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7467957.454439034</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7574087.834439034</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7510009.114439034</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-7717163.109439033</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-7657089.309439034</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-7705148.349439034</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-7624849.949439034</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-7751004.929439034</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-7655803.120839034</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-7287928.089439034</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-6983345.931439035</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-337838.8922390346</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-337838.8922390346</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-797765.6692390346</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-720470.7132390346</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-760920.4052390347</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-847827.1692390346</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-924736.3238390347</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-774191.3818390347</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-677672.8098390347</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-597974.9018390346</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-656046.2418390346</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-593539.8638390347</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-642800.3798390348</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-642800.3798390348</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-498744.4708390348</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-566427.6188390348</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-504746.9199390348</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-437063.7719390348</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-540791.1999390348</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-472307.0679390348</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-424648.5199390348</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-505147.4119390348</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-409429.8239390348</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-515271.8499390348</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-468414.2859390348</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-568136.7939390348</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-536497.9259390348</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-624205.6739390348</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-492844.2979390348</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-492844.2979390348</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-598974.6779390348</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-516072.8339390348</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-558925.4779390348</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-519276.7699390348</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-443583.7819390348</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-468673.3876390348</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-293257.8916390348</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-360140.0556390348</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-190331.4476390348</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-246596.8836390348</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-174908.8156390348</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-96812.87563903481</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-53159.24763903482</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-53159.24763903482</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>20931.77236096519</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-24323.82363903481</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>64985.89236096519</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>64985.89236096519</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>165509.3843609652</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>105836.0763609652</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>175922.1763609652</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>10919.47236096521</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-22321.36363903479</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-94810.41563903479</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-35938.09163903479</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-170503.4036390348</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-124446.8236390348</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-201741.7796390348</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-201741.7796390348</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-202743.0096390348</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-126249.0376390348</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-198978.9490390348</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>79362.99096096515</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-79231.84103903484</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>15684.76296096516</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>53731.50296096516</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-29042.18403903484</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>69078.35596096516</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-40255.96003903485</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>53859.65996096515</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-1007.744039034857</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>95510.82796096514</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>15812.91996096514</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-18629.39203903486</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>17014.39596096514</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-102796.7910390349</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-5451081.839739036</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-5344150.475739036</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-5407027.719739036</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-5058348.126739035</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-5136444.066739036</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-5092790.438739036</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-5166881.458739036</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-5121625.862739036</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-5032316.146739036</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-5032316.146739036</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-4931095.798739036</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-5092894.566739036</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-4980356.314739035</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-5039228.638739035</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-4949117.938739035</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-4903061.358739035</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-5714102.753839036</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-5661638.301839035</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-5770171.633839035</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-5726117.513839035</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-5688070.773839035</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-5605969.913839035</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-5814225.753839035</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-5717707.181839035</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-5797405.089839035</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-5764935.101839035</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-3869320.578339035</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-3868320.578339035</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-4975616.170239035</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
